--- a/5.HTML & CSS/HTML TAGS.xlsx
+++ b/5.HTML & CSS/HTML TAGS.xlsx
@@ -348,10 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +637,7 @@
   <dimension ref="E5:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,511 +651,525 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="2"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="2"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="E33:F33"/>
@@ -1170,68 +1184,54 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5.HTML & CSS/HTML TAGS.xlsx
+++ b/5.HTML & CSS/HTML TAGS.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>&lt;em&gt;</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>разтояние между ръба на страницата</t>
+  </si>
+  <si>
+    <t>&lt;q&gt;</t>
+  </si>
+  <si>
+    <t>"  "</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,463 +657,577 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="3"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="3"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="3"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="3"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="3"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="3"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="3"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="3"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="3"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="3"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="3"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="3"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="3"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="M36:P36"/>
     <mergeCell ref="J33:L33"/>
@@ -1122,116 +1242,6 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5.HTML & CSS/HTML TAGS.xlsx
+++ b/5.HTML & CSS/HTML TAGS.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>&lt;em&gt;</t>
   </si>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>"  "</t>
+  </si>
+  <si>
+    <t>import url(https://fonts.googleapis.com/css?family=PT+Sans|PT+Serif);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import url(https://use.fontawesome.com/releases/v6.4.0/css/all.css);
+@import url(https://use.fontawesome.com/releases/v6.4.0/css/all.css);
+</t>
   </si>
 </sst>
 </file>
@@ -349,16 +357,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,532 +651,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:P36"/>
+  <dimension ref="E5:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="S8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="2"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="2"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="2"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
+  <mergeCells count="139">
+    <mergeCell ref="S16:X16"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="S10:X10"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="S14:X14"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="E33:F33"/>
@@ -1180,68 +1317,54 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
